--- a/Excel/ServerInfoConfig.xlsx
+++ b/Excel/ServerInfoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_proj\ET-FrameAsync\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\UnityProject\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C4B4B-4A61-408F-AB58-B4AD58BE3903}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F9CF5-C58D-475C-8116-B7D836163922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28275" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerInfoConfig" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,11 @@
     <t>string</t>
   </si>
   <si>
+    <t>ServerName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>区服名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ServerName </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -75,6 +75,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,9 +140,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -448,63 +446,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F7"/>
+  <dimension ref="C3:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
